--- a/Calculate-Total-Cost-Performer/Data/Config.xlsx
+++ b/Calculate-Total-Cost-Performer/Data/Config.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>Data\Invoices.xlsx</t>
+  </si>
+  <si>
+    <t>The path of excel file</t>
+  </si>
+  <si>
+    <t>SheetName</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>The name of the excel sheet</t>
   </si>
   <si>
     <t>MaxRetryNumber</t>
@@ -179,7 +197,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -189,12 +207,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -654,159 +666,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1131,7 +1139,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4444444444444" defaultRowHeight="15" customHeight="1"/>
@@ -1177,24 +1185,24 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1206,12 +1214,32 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="8" ht="14.25" customHeight="1"/>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -2263,138 +2291,138 @@
     </row>
     <row r="2" ht="28.8" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="28.8" spans="1:3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -3396,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>

--- a/Calculate-Total-Cost-Performer/Data/Config.xlsx
+++ b/Calculate-Total-Cost-Performer/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9707"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>The name of the excel sheet</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>A1:G1</t>
+  </si>
+  <si>
+    <t>The range for color fill</t>
   </si>
   <si>
     <t>MaxRetryNumber</t>
@@ -1240,7 +1249,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1" spans="1:3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
@@ -2291,138 +2310,138 @@
     </row>
     <row r="2" ht="28.8" spans="1:3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="28.8" spans="1:3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -3424,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
